--- a/raw_data/Biomass_Sorting_Data.xlsx
+++ b/raw_data/Biomass_Sorting_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marleylund/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marleylund/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="87">
   <si>
     <t>Plot</t>
   </si>
@@ -306,12 +306,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -326,11 +332,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H347"/>
+  <dimension ref="A1:H348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A340" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E247" sqref="E247"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="103" workbookViewId="0">
+      <selection activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1888,6 +1896,12 @@
       <c r="D62" t="s">
         <v>9</v>
       </c>
+      <c r="E62">
+        <v>15.6</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -1897,10 +1911,16 @@
         <v>2</v>
       </c>
       <c r="C63" s="1">
-        <v>43293</v>
+        <v>43292</v>
       </c>
       <c r="D63" t="s">
         <v>20</v>
+      </c>
+      <c r="E63">
+        <v>21.3</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
@@ -2476,6 +2496,12 @@
       <c r="D92" t="s">
         <v>8</v>
       </c>
+      <c r="E92">
+        <v>163.6</v>
+      </c>
+      <c r="F92">
+        <v>10.199999999999999</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
@@ -2537,6 +2563,12 @@
       </c>
       <c r="D96" t="s">
         <v>8</v>
+      </c>
+      <c r="E96">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F96">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -3145,19 +3177,19 @@
         <v>14</v>
       </c>
       <c r="B132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C132" s="1">
         <v>43291</v>
       </c>
       <c r="D132" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E132">
-        <v>11.97</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F132">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -3171,13 +3203,13 @@
         <v>43291</v>
       </c>
       <c r="D133" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E133">
-        <v>2.77</v>
+        <v>11.97</v>
       </c>
       <c r="F133">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
@@ -3191,10 +3223,10 @@
         <v>43291</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E134">
-        <v>2.78</v>
+        <v>2.77</v>
       </c>
       <c r="F134">
         <v>2.77</v>
@@ -3211,10 +3243,10 @@
         <v>43291</v>
       </c>
       <c r="D135" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E135">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="F135">
         <v>2.77</v>
@@ -3231,13 +3263,13 @@
         <v>43291</v>
       </c>
       <c r="D136" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E136">
-        <v>4.6900000000000004</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
@@ -3251,13 +3283,13 @@
         <v>43291</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E137">
-        <v>71.7</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="F137">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
@@ -3271,13 +3303,13 @@
         <v>43291</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>5.98</v>
+        <v>71.7</v>
       </c>
       <c r="F138">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
@@ -3291,16 +3323,13 @@
         <v>43291</v>
       </c>
       <c r="D139" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="E139">
-        <v>5.78</v>
+        <v>5.98</v>
       </c>
       <c r="F139">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H139" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
@@ -3314,13 +3343,16 @@
         <v>43291</v>
       </c>
       <c r="D140" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E140">
-        <v>5.68</v>
+        <v>5.78</v>
       </c>
       <c r="F140">
         <v>4.5999999999999996</v>
+      </c>
+      <c r="H140" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
@@ -3334,10 +3366,10 @@
         <v>43291</v>
       </c>
       <c r="D141" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E141">
-        <v>5.41</v>
+        <v>5.68</v>
       </c>
       <c r="F141">
         <v>4.5999999999999996</v>
@@ -3354,13 +3386,13 @@
         <v>43291</v>
       </c>
       <c r="D142" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E142">
-        <v>2.81</v>
+        <v>5.41</v>
       </c>
       <c r="F142">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
@@ -3374,7 +3406,7 @@
         <v>43291</v>
       </c>
       <c r="D143" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E143">
         <v>2.81</v>
@@ -3394,16 +3426,13 @@
         <v>43291</v>
       </c>
       <c r="D144" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="E144">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="F144">
         <v>2.77</v>
-      </c>
-      <c r="H144" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -3417,10 +3446,10 @@
         <v>43291</v>
       </c>
       <c r="D145" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E145">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="F145">
         <v>2.77</v>
@@ -3431,22 +3460,25 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C146" s="1">
-        <v>43283</v>
+        <v>43291</v>
       </c>
       <c r="D146" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E146">
-        <v>20</v>
+        <v>2.81</v>
       </c>
       <c r="F146">
-        <v>7</v>
+        <v>2.77</v>
+      </c>
+      <c r="H146" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
@@ -3460,13 +3492,13 @@
         <v>43283</v>
       </c>
       <c r="D147" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E147">
-        <v>168.8</v>
+        <v>20</v>
       </c>
       <c r="F147">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
@@ -3480,13 +3512,13 @@
         <v>43283</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148">
-        <v>4.0199999999999996</v>
+        <v>168.8</v>
       </c>
       <c r="F148">
-        <v>2.77</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
@@ -3494,19 +3526,19 @@
         <v>15</v>
       </c>
       <c r="B149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C149" s="1">
-        <v>43291</v>
+        <v>43283</v>
       </c>
       <c r="D149" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E149">
-        <v>27.4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
@@ -3520,13 +3552,13 @@
         <v>43291</v>
       </c>
       <c r="D150" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E150">
-        <v>117.2</v>
+        <v>27.4</v>
       </c>
       <c r="F150">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
@@ -3534,13 +3566,19 @@
         <v>15</v>
       </c>
       <c r="B151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C151" s="1">
         <v>43291</v>
       </c>
       <c r="D151" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="E151">
+        <v>117.2</v>
+      </c>
+      <c r="F151">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
@@ -3554,13 +3592,7 @@
         <v>43291</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
-      </c>
-      <c r="E152">
-        <v>5.38</v>
-      </c>
-      <c r="F152">
-        <v>4.5999999999999996</v>
+        <v>18</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
@@ -3574,13 +3606,13 @@
         <v>43291</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E153">
-        <v>45.7</v>
+        <v>5.38</v>
       </c>
       <c r="F153">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
@@ -3594,13 +3626,13 @@
         <v>43291</v>
       </c>
       <c r="D154" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E154">
-        <v>98.6</v>
+        <v>45.7</v>
       </c>
       <c r="F154">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
@@ -3614,30 +3646,30 @@
         <v>43291</v>
       </c>
       <c r="D155" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="E155">
-        <v>6.55</v>
+        <v>98.6</v>
       </c>
       <c r="F155">
-        <v>4.5999999999999996</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C156" s="1">
-        <v>43293</v>
+        <v>43291</v>
       </c>
       <c r="D156" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E156">
-        <v>7.38</v>
+        <v>6.55</v>
       </c>
       <c r="F156">
         <v>4.5999999999999996</v>
@@ -3654,7 +3686,13 @@
         <v>43293</v>
       </c>
       <c r="D157" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E157">
+        <v>7.38</v>
+      </c>
+      <c r="F157">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
@@ -3668,7 +3706,7 @@
         <v>43293</v>
       </c>
       <c r="D158" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
@@ -3682,27 +3720,21 @@
         <v>43293</v>
       </c>
       <c r="D159" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C160" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D160" t="s">
-        <v>20</v>
-      </c>
-      <c r="E160">
-        <v>27.6</v>
-      </c>
-      <c r="F160">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
@@ -3716,13 +3748,13 @@
         <v>43291</v>
       </c>
       <c r="D161" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E161">
-        <v>4.76</v>
+        <v>27.6</v>
       </c>
       <c r="F161">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
@@ -3736,13 +3768,13 @@
         <v>43291</v>
       </c>
       <c r="D162" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E162">
-        <v>41.7</v>
+        <v>4.76</v>
       </c>
       <c r="F162">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
@@ -3756,13 +3788,13 @@
         <v>43291</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>8.44</v>
+        <v>41.7</v>
       </c>
       <c r="F163">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
@@ -3770,19 +3802,19 @@
         <v>17</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C164" s="1">
-        <v>43286</v>
+        <v>43291</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E164">
-        <v>23.2</v>
+        <v>8.44</v>
       </c>
       <c r="F164">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
@@ -3796,13 +3828,13 @@
         <v>43286</v>
       </c>
       <c r="D165" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E165">
-        <v>2.85</v>
+        <v>23.2</v>
       </c>
       <c r="F165">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
@@ -3816,10 +3848,10 @@
         <v>43286</v>
       </c>
       <c r="D166" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E166">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="F166">
         <v>2.77</v>
@@ -3836,13 +3868,13 @@
         <v>43286</v>
       </c>
       <c r="D167" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="E167">
-        <v>25.7</v>
+        <v>2.86</v>
       </c>
       <c r="F167">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
@@ -3856,13 +3888,13 @@
         <v>43286</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E168">
-        <v>11.8</v>
+        <v>25.7</v>
       </c>
       <c r="F168">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
@@ -3870,13 +3902,19 @@
         <v>17</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C169" s="1">
-        <v>43293</v>
+        <v>43286</v>
       </c>
       <c r="D169" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="E169">
+        <v>11.8</v>
+      </c>
+      <c r="F169">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
@@ -3890,7 +3928,7 @@
         <v>43293</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
@@ -3904,7 +3942,7 @@
         <v>43293</v>
       </c>
       <c r="D171" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
@@ -3918,21 +3956,21 @@
         <v>43293</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C173" s="1">
         <v>43293</v>
       </c>
       <c r="D173" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
@@ -3946,7 +3984,7 @@
         <v>43293</v>
       </c>
       <c r="D174" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
@@ -3960,7 +3998,7 @@
         <v>43293</v>
       </c>
       <c r="D175" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
@@ -3968,13 +4006,13 @@
         <v>18</v>
       </c>
       <c r="B176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D176" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
@@ -3988,13 +4026,7 @@
         <v>43290</v>
       </c>
       <c r="D177" t="s">
-        <v>51</v>
-      </c>
-      <c r="E177">
-        <v>3.24</v>
-      </c>
-      <c r="F177">
-        <v>2.77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
@@ -4008,10 +4040,10 @@
         <v>43290</v>
       </c>
       <c r="D178" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E178">
-        <v>3.43</v>
+        <v>3.24</v>
       </c>
       <c r="F178">
         <v>2.77</v>
@@ -4028,13 +4060,13 @@
         <v>43290</v>
       </c>
       <c r="D179" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E179">
-        <v>32.9</v>
+        <v>3.43</v>
       </c>
       <c r="F179">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -4048,10 +4080,10 @@
         <v>43290</v>
       </c>
       <c r="D180" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E180">
-        <v>14.2</v>
+        <v>32.9</v>
       </c>
       <c r="F180">
         <v>7</v>
@@ -4068,13 +4100,13 @@
         <v>43290</v>
       </c>
       <c r="D181" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E181">
-        <v>5.07</v>
+        <v>14.2</v>
       </c>
       <c r="F181">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
@@ -4082,13 +4114,19 @@
         <v>18</v>
       </c>
       <c r="B182">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C182" s="1">
-        <v>43293</v>
+        <v>43290</v>
       </c>
       <c r="D182" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="E182">
+        <v>5.07</v>
+      </c>
+      <c r="F182">
+        <v>2.77</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
@@ -4102,7 +4140,7 @@
         <v>43293</v>
       </c>
       <c r="D183" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
@@ -4116,27 +4154,21 @@
         <v>43293</v>
       </c>
       <c r="D184" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C185" s="1">
-        <v>43291</v>
+        <v>43293</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185">
-        <v>30.6</v>
-      </c>
-      <c r="F185">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
@@ -4150,13 +4182,13 @@
         <v>43291</v>
       </c>
       <c r="D186" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E186">
-        <v>4.7</v>
+        <v>30.6</v>
       </c>
       <c r="F186">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
@@ -4170,13 +4202,13 @@
         <v>43291</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E187">
-        <v>39.299999999999997</v>
+        <v>4.7</v>
       </c>
       <c r="F187">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
@@ -4190,53 +4222,53 @@
         <v>43291</v>
       </c>
       <c r="D188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>19</v>
+      </c>
+      <c r="B189" s="4">
+        <v>1</v>
+      </c>
+      <c r="C189" s="5">
+        <v>43291</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E188">
+      <c r="E189" s="4">
         <v>8.83</v>
       </c>
-      <c r="F188">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A189">
+      <c r="F189" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
         <v>19</v>
       </c>
-      <c r="B189">
-        <v>1</v>
-      </c>
-      <c r="C189" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D189" t="s">
+      <c r="B190" s="4">
+        <v>1</v>
+      </c>
+      <c r="C190" s="5">
+        <v>43291</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E189">
+      <c r="E190" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="F189">
+      <c r="F190" s="4">
         <v>7</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A190">
-        <v>19</v>
-      </c>
-      <c r="B190">
-        <v>2</v>
-      </c>
-      <c r="C190" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D190" t="s">
-        <v>25</v>
-      </c>
-      <c r="E190">
-        <v>6.53</v>
-      </c>
-      <c r="F190">
-        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
@@ -4250,13 +4282,13 @@
         <v>43291</v>
       </c>
       <c r="D191" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E191">
-        <v>73.599999999999994</v>
+        <v>6.53</v>
       </c>
       <c r="F191">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
@@ -4270,7 +4302,13 @@
         <v>43291</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E192">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="F192">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
@@ -4278,16 +4316,16 @@
         <v>19</v>
       </c>
       <c r="B193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C193" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E193">
-        <v>25.9</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F193">
         <v>7</v>
@@ -4304,13 +4342,13 @@
         <v>43292</v>
       </c>
       <c r="D194" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E194">
-        <v>4.6100000000000003</v>
+        <v>25.9</v>
       </c>
       <c r="F194">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
@@ -4324,10 +4362,10 @@
         <v>43292</v>
       </c>
       <c r="D195" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E195">
-        <v>4.75</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F195">
         <v>4.5999999999999996</v>
@@ -4344,13 +4382,13 @@
         <v>43292</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E196">
-        <v>36.5</v>
+        <v>4.75</v>
       </c>
       <c r="F196">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
@@ -4364,13 +4402,13 @@
         <v>43292</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E197">
-        <v>8.08</v>
+        <v>36.5</v>
       </c>
       <c r="F197">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
@@ -4384,10 +4422,10 @@
         <v>43292</v>
       </c>
       <c r="D198" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="E198">
-        <v>4.63</v>
+        <v>8.08</v>
       </c>
       <c r="F198">
         <v>4.5999999999999996</v>
@@ -4404,30 +4442,36 @@
         <v>43292</v>
       </c>
       <c r="D199" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E199">
-        <v>4.6100000000000003</v>
+        <v>4.63</v>
       </c>
       <c r="F199">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H199" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B200">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C200" s="1">
         <v>43292</v>
       </c>
       <c r="D200" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="E200">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="F200">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H200" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
@@ -4441,13 +4485,13 @@
         <v>43292</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E201">
-        <v>85.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F201">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
@@ -4461,7 +4505,13 @@
         <v>43292</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="E202">
+        <v>85.7</v>
+      </c>
+      <c r="F202">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
@@ -4475,7 +4525,7 @@
         <v>43292</v>
       </c>
       <c r="D203" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
@@ -4489,7 +4539,7 @@
         <v>43292</v>
       </c>
       <c r="D204" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
@@ -4497,19 +4547,13 @@
         <v>20</v>
       </c>
       <c r="B205">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C205" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D205" t="s">
-        <v>18</v>
-      </c>
-      <c r="E205">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="F205">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
@@ -4523,13 +4567,13 @@
         <v>43291</v>
       </c>
       <c r="D206" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E206">
-        <v>124.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F206">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
@@ -4537,19 +4581,19 @@
         <v>20</v>
       </c>
       <c r="B207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C207" s="1">
-        <v>43283</v>
+        <v>43291</v>
       </c>
       <c r="D207" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E207">
-        <v>26.2</v>
+        <v>124.6</v>
       </c>
       <c r="F207">
-        <v>7</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
@@ -4563,13 +4607,13 @@
         <v>43283</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E208">
-        <v>123.6</v>
+        <v>26.2</v>
       </c>
       <c r="F208">
-        <v>10.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
@@ -4583,33 +4627,33 @@
         <v>43283</v>
       </c>
       <c r="D209" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E209">
-        <v>4.46</v>
+        <v>123.6</v>
       </c>
       <c r="F209">
-        <v>2.77</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C210" s="1">
-        <v>43292</v>
+        <v>43283</v>
       </c>
       <c r="D210" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E210">
-        <v>23.2</v>
+        <v>4.46</v>
       </c>
       <c r="F210">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
@@ -4623,13 +4667,13 @@
         <v>43292</v>
       </c>
       <c r="D211" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="E211">
-        <v>5.93</v>
+        <v>23.2</v>
       </c>
       <c r="F211">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
@@ -4643,10 +4687,10 @@
         <v>43292</v>
       </c>
       <c r="D212" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="E212">
-        <v>4.87</v>
+        <v>5.93</v>
       </c>
       <c r="F212">
         <v>4.5999999999999996</v>
@@ -4663,7 +4707,13 @@
         <v>43292</v>
       </c>
       <c r="D213" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="E213">
+        <v>4.87</v>
+      </c>
+      <c r="F213">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
@@ -4677,13 +4727,7 @@
         <v>43292</v>
       </c>
       <c r="D214" t="s">
-        <v>8</v>
-      </c>
-      <c r="E214">
-        <v>11.91</v>
-      </c>
-      <c r="F214">
-        <v>4.5999999999999996</v>
+        <v>16</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
@@ -4697,10 +4741,10 @@
         <v>43292</v>
       </c>
       <c r="D215" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="E215">
-        <v>4.84</v>
+        <v>11.91</v>
       </c>
       <c r="F215">
         <v>4.5999999999999996</v>
@@ -4711,13 +4755,19 @@
         <v>21</v>
       </c>
       <c r="B216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C216" s="1">
-        <v>43293</v>
+        <v>43292</v>
       </c>
       <c r="D216" t="s">
-        <v>18</v>
+        <v>66</v>
+      </c>
+      <c r="E216">
+        <v>4.84</v>
+      </c>
+      <c r="F216">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
@@ -4731,7 +4781,7 @@
         <v>43293</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
@@ -4745,27 +4795,21 @@
         <v>43293</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C219" s="1">
-        <v>43290</v>
+        <v>43293</v>
       </c>
       <c r="D219" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219">
-        <v>82.4</v>
-      </c>
-      <c r="F219">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
@@ -4779,10 +4823,13 @@
         <v>43290</v>
       </c>
       <c r="D220" t="s">
-        <v>23</v>
-      </c>
-      <c r="H220" t="s">
-        <v>57</v>
+        <v>8</v>
+      </c>
+      <c r="E220">
+        <v>82.4</v>
+      </c>
+      <c r="F220">
+        <v>7</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
@@ -4790,19 +4837,16 @@
         <v>22</v>
       </c>
       <c r="B221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C221" s="1">
         <v>43290</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
-      </c>
-      <c r="E221">
-        <v>190.3</v>
-      </c>
-      <c r="F221">
-        <v>10.199999999999999</v>
+        <v>23</v>
+      </c>
+      <c r="H221" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
@@ -4816,13 +4860,13 @@
         <v>43290</v>
       </c>
       <c r="D222" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>2.82</v>
+        <v>190.3</v>
       </c>
       <c r="F222">
-        <v>2.77</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
@@ -4830,16 +4874,19 @@
         <v>22</v>
       </c>
       <c r="B223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C223" s="1">
-        <v>43292</v>
+        <v>43290</v>
       </c>
       <c r="D223" t="s">
-        <v>73</v>
-      </c>
-      <c r="H223" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="E223">
+        <v>2.82</v>
+      </c>
+      <c r="F223">
+        <v>2.77</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
@@ -4853,7 +4900,10 @@
         <v>43292</v>
       </c>
       <c r="D224" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="H224" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
@@ -4867,7 +4917,7 @@
         <v>43292</v>
       </c>
       <c r="D225" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
@@ -4881,30 +4931,30 @@
         <v>43292</v>
       </c>
       <c r="D226" t="s">
-        <v>23</v>
-      </c>
-      <c r="H226" t="s">
-        <v>75</v>
+        <v>8</v>
+      </c>
+      <c r="E226">
+        <v>60.6</v>
+      </c>
+      <c r="F226">
+        <v>7</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
+        <v>22</v>
+      </c>
+      <c r="B227">
+        <v>3</v>
+      </c>
+      <c r="C227" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D227" t="s">
         <v>23</v>
       </c>
-      <c r="B227">
-        <v>1</v>
-      </c>
-      <c r="C227" s="1">
-        <v>43291</v>
-      </c>
-      <c r="D227" t="s">
-        <v>52</v>
-      </c>
-      <c r="E227">
-        <v>6.6</v>
-      </c>
-      <c r="F227">
-        <v>4.5999999999999996</v>
+      <c r="H227" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
@@ -4918,10 +4968,10 @@
         <v>43291</v>
       </c>
       <c r="D228" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E228">
-        <v>4.6100000000000003</v>
+        <v>6.6</v>
       </c>
       <c r="F228">
         <v>4.5999999999999996</v>
@@ -4938,13 +4988,13 @@
         <v>43291</v>
       </c>
       <c r="D229" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="E229">
-        <v>20.399999999999999</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F229">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
@@ -4958,13 +5008,13 @@
         <v>43291</v>
       </c>
       <c r="D230" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E230">
-        <v>6.78</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F230">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
@@ -4978,10 +5028,10 @@
         <v>43291</v>
       </c>
       <c r="D231" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E231">
-        <v>9.67</v>
+        <v>6.78</v>
       </c>
       <c r="F231">
         <v>4.5999999999999996</v>
@@ -4998,10 +5048,10 @@
         <v>43291</v>
       </c>
       <c r="D232" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E232">
-        <v>5.41</v>
+        <v>9.67</v>
       </c>
       <c r="F232">
         <v>4.5999999999999996</v>
@@ -5018,10 +5068,10 @@
         <v>43291</v>
       </c>
       <c r="D233" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E233">
-        <v>11.19</v>
+        <v>5.41</v>
       </c>
       <c r="F233">
         <v>4.5999999999999996</v>
@@ -5038,10 +5088,10 @@
         <v>43291</v>
       </c>
       <c r="D234" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E234">
-        <v>6.96</v>
+        <v>11.19</v>
       </c>
       <c r="F234">
         <v>4.5999999999999996</v>
@@ -5052,13 +5102,19 @@
         <v>23</v>
       </c>
       <c r="B235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C235" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D235" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="E235">
+        <v>6.96</v>
+      </c>
+      <c r="F235">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
@@ -5072,13 +5128,7 @@
         <v>43292</v>
       </c>
       <c r="D236" t="s">
-        <v>84</v>
-      </c>
-      <c r="E236">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F236">
-        <v>4.5999999999999996</v>
+        <v>52</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
@@ -5092,7 +5142,13 @@
         <v>43292</v>
       </c>
       <c r="D237" t="s">
-        <v>61</v>
+        <v>84</v>
+      </c>
+      <c r="E237">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F237">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
@@ -5106,7 +5162,7 @@
         <v>43292</v>
       </c>
       <c r="D238" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
@@ -5120,7 +5176,7 @@
         <v>43292</v>
       </c>
       <c r="D239" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
@@ -5134,13 +5190,7 @@
         <v>43292</v>
       </c>
       <c r="D240" t="s">
-        <v>56</v>
-      </c>
-      <c r="E240">
-        <v>22.8</v>
-      </c>
-      <c r="F240">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -5154,7 +5204,13 @@
         <v>43292</v>
       </c>
       <c r="D241" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="E241">
+        <v>22.8</v>
+      </c>
+      <c r="F241">
+        <v>7</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
@@ -5168,7 +5224,7 @@
         <v>43292</v>
       </c>
       <c r="D242" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
@@ -5176,19 +5232,13 @@
         <v>23</v>
       </c>
       <c r="B243">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C243" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D243" t="s">
-        <v>61</v>
-      </c>
-      <c r="E243">
-        <v>33.4</v>
-      </c>
-      <c r="F243">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
@@ -5202,13 +5252,13 @@
         <v>43291</v>
       </c>
       <c r="D244" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="E244">
-        <v>4.87</v>
+        <v>33.4</v>
       </c>
       <c r="F244">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
@@ -5222,13 +5272,13 @@
         <v>43291</v>
       </c>
       <c r="D245" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E245">
-        <v>10.57</v>
+        <v>4.87</v>
       </c>
       <c r="F245">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
@@ -5242,10 +5292,10 @@
         <v>43291</v>
       </c>
       <c r="D246" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E246">
-        <v>11.73</v>
+        <v>10.57</v>
       </c>
       <c r="F246">
         <v>4.5999999999999996</v>
@@ -5253,16 +5303,22 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B247">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C247" s="1">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="D247" t="s">
-        <v>60</v>
+        <v>8</v>
+      </c>
+      <c r="E247">
+        <v>11.73</v>
+      </c>
+      <c r="F247">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
@@ -5276,7 +5332,7 @@
         <v>43290</v>
       </c>
       <c r="D248" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
@@ -5287,16 +5343,10 @@
         <v>1</v>
       </c>
       <c r="C249" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D249" t="s">
-        <v>59</v>
-      </c>
-      <c r="E249">
-        <v>3.16</v>
-      </c>
-      <c r="F249">
-        <v>2.77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
@@ -5310,10 +5360,10 @@
         <v>43291</v>
       </c>
       <c r="D250" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="E250">
-        <v>2.73</v>
+        <v>3.16</v>
       </c>
       <c r="F250">
         <v>2.77</v>
@@ -5327,16 +5377,16 @@
         <v>1</v>
       </c>
       <c r="C251" s="1">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="D251" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="E251">
-        <v>15.58</v>
+        <v>2.73</v>
       </c>
       <c r="F251">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
@@ -5347,19 +5397,16 @@
         <v>1</v>
       </c>
       <c r="C252" s="1">
-        <v>43291</v>
+        <v>43290</v>
       </c>
       <c r="D252" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E252">
-        <v>2.74</v>
+        <v>15.58</v>
       </c>
       <c r="F252">
-        <v>2.77</v>
-      </c>
-      <c r="H252" t="s">
-        <v>57</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
@@ -5367,19 +5414,22 @@
         <v>24</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C253" s="1">
         <v>43291</v>
       </c>
       <c r="D253" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E253">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="F253">
         <v>2.77</v>
+      </c>
+      <c r="H253" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
@@ -5393,13 +5443,13 @@
         <v>43291</v>
       </c>
       <c r="D254" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E254">
-        <v>8.4499999999999993</v>
+        <v>2.92</v>
       </c>
       <c r="F254">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
@@ -5413,13 +5463,13 @@
         <v>43291</v>
       </c>
       <c r="D255" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E255">
-        <v>2.91</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F255">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
@@ -5433,10 +5483,10 @@
         <v>43291</v>
       </c>
       <c r="D256" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E256">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F256">
         <v>2.77</v>
@@ -5453,13 +5503,13 @@
         <v>43291</v>
       </c>
       <c r="D257" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E257">
-        <v>5.65</v>
+        <v>2.92</v>
       </c>
       <c r="F257">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
@@ -5473,13 +5523,13 @@
         <v>43291</v>
       </c>
       <c r="D258" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E258">
-        <v>2.9</v>
+        <v>5.65</v>
       </c>
       <c r="F258">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
@@ -5493,13 +5543,13 @@
         <v>43291</v>
       </c>
       <c r="D259" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E259">
-        <v>9.7100000000000009</v>
+        <v>2.9</v>
       </c>
       <c r="F259">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
@@ -5513,10 +5563,10 @@
         <v>43291</v>
       </c>
       <c r="D260" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E260">
-        <v>7.64</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="F260">
         <v>4.5999999999999996</v>
@@ -5527,16 +5577,16 @@
         <v>24</v>
       </c>
       <c r="B261">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C261" s="1">
         <v>43291</v>
       </c>
       <c r="D261" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E261">
-        <v>6.73</v>
+        <v>7.64</v>
       </c>
       <c r="F261">
         <v>4.5999999999999996</v>
@@ -5553,10 +5603,10 @@
         <v>43291</v>
       </c>
       <c r="D262" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E262">
-        <v>5.53</v>
+        <v>6.73</v>
       </c>
       <c r="F262">
         <v>4.5999999999999996</v>
@@ -5573,13 +5623,13 @@
         <v>43291</v>
       </c>
       <c r="D263" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="E263">
-        <v>25.3</v>
+        <v>5.53</v>
       </c>
       <c r="F263">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -5593,13 +5643,13 @@
         <v>43291</v>
       </c>
       <c r="D264" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E264">
-        <v>2.84</v>
+        <v>25.3</v>
       </c>
       <c r="F264">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
@@ -5613,13 +5663,13 @@
         <v>43291</v>
       </c>
       <c r="D265" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E265">
-        <v>6.5</v>
+        <v>2.84</v>
       </c>
       <c r="F265">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
@@ -5633,13 +5683,13 @@
         <v>43291</v>
       </c>
       <c r="D266" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E266">
-        <v>2.87</v>
+        <v>6.5</v>
       </c>
       <c r="F266">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
@@ -5653,10 +5703,10 @@
         <v>43291</v>
       </c>
       <c r="D267" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E267">
-        <v>5.38</v>
+        <v>2.87</v>
       </c>
       <c r="F267">
         <v>2.77</v>
@@ -5673,10 +5723,10 @@
         <v>43291</v>
       </c>
       <c r="D268" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="E268">
-        <v>2.89</v>
+        <v>5.38</v>
       </c>
       <c r="F268">
         <v>2.77</v>
@@ -5693,10 +5743,10 @@
         <v>43291</v>
       </c>
       <c r="D269" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E269">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="F269">
         <v>2.77</v>
@@ -5704,22 +5754,22 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C270" s="1">
-        <v>43292</v>
+        <v>43291</v>
       </c>
       <c r="D270" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E270">
-        <v>12.9</v>
+        <v>2.85</v>
       </c>
       <c r="F270">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
@@ -5733,10 +5783,10 @@
         <v>43292</v>
       </c>
       <c r="D271" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E271">
-        <v>20.9</v>
+        <v>12.9</v>
       </c>
       <c r="F271">
         <v>7</v>
@@ -5753,7 +5803,13 @@
         <v>43292</v>
       </c>
       <c r="D272" t="s">
-        <v>51</v>
+        <v>61</v>
+      </c>
+      <c r="E272">
+        <v>20.9</v>
+      </c>
+      <c r="F272">
+        <v>7</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
@@ -5767,13 +5823,7 @@
         <v>43292</v>
       </c>
       <c r="D273" t="s">
-        <v>8</v>
-      </c>
-      <c r="E273">
-        <v>8.16</v>
-      </c>
-      <c r="F273">
-        <v>4.5999999999999996</v>
+        <v>51</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
@@ -5787,7 +5837,13 @@
         <v>43292</v>
       </c>
       <c r="D274" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="E274">
+        <v>8.16</v>
+      </c>
+      <c r="F274">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
@@ -5801,7 +5857,7 @@
         <v>43292</v>
       </c>
       <c r="D275" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
@@ -5809,19 +5865,13 @@
         <v>25</v>
       </c>
       <c r="B276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C276" s="1">
         <v>43292</v>
       </c>
       <c r="D276" t="s">
-        <v>52</v>
-      </c>
-      <c r="E276">
-        <v>5.53</v>
-      </c>
-      <c r="F276">
-        <v>4.5999999999999996</v>
+        <v>19</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
@@ -5835,10 +5885,10 @@
         <v>43292</v>
       </c>
       <c r="D277" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E277">
-        <v>4.57</v>
+        <v>5.53</v>
       </c>
       <c r="F277">
         <v>4.5999999999999996</v>
@@ -5855,10 +5905,10 @@
         <v>43292</v>
       </c>
       <c r="D278" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E278">
-        <v>4.6500000000000004</v>
+        <v>4.57</v>
       </c>
       <c r="F278">
         <v>4.5999999999999996</v>
@@ -5875,7 +5925,13 @@
         <v>43292</v>
       </c>
       <c r="D279" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="E279">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F279">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.2">
@@ -5889,13 +5945,13 @@
         <v>43292</v>
       </c>
       <c r="D280" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E280">
-        <v>4.7300000000000004</v>
+        <v>23.8</v>
       </c>
       <c r="F280">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.2">
@@ -5909,10 +5965,10 @@
         <v>43292</v>
       </c>
       <c r="D281" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="E281">
-        <v>4.63</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="F281">
         <v>4.5999999999999996</v>
@@ -5929,10 +5985,10 @@
         <v>43292</v>
       </c>
       <c r="D282" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E282">
-        <v>13.08</v>
+        <v>4.63</v>
       </c>
       <c r="F282">
         <v>4.5999999999999996</v>
@@ -5949,10 +6005,10 @@
         <v>43292</v>
       </c>
       <c r="D283" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="E283">
-        <v>4.62</v>
+        <v>13.08</v>
       </c>
       <c r="F283">
         <v>4.5999999999999996</v>
@@ -5969,7 +6025,13 @@
         <v>43292</v>
       </c>
       <c r="D284" t="s">
-        <v>19</v>
+        <v>54</v>
+      </c>
+      <c r="E284">
+        <v>4.62</v>
+      </c>
+      <c r="F284">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
@@ -5983,13 +6045,7 @@
         <v>43292</v>
       </c>
       <c r="D285" t="s">
-        <v>62</v>
-      </c>
-      <c r="E285">
-        <v>5.89</v>
-      </c>
-      <c r="F285">
-        <v>4.5999999999999996</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
@@ -5997,19 +6053,19 @@
         <v>25</v>
       </c>
       <c r="B286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C286" s="1">
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="D286" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E286">
-        <v>3.54</v>
+        <v>5.89</v>
       </c>
       <c r="F286">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.2">
@@ -6023,13 +6079,13 @@
         <v>43291</v>
       </c>
       <c r="D287" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E287">
-        <v>17.899999999999999</v>
+        <v>3.54</v>
       </c>
       <c r="F287">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.2">
@@ -6043,13 +6099,13 @@
         <v>43291</v>
       </c>
       <c r="D288" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E288">
-        <v>7.22</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F288">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
@@ -6063,13 +6119,13 @@
         <v>43291</v>
       </c>
       <c r="D289" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="E289">
-        <v>3.07</v>
+        <v>7.22</v>
       </c>
       <c r="F289">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.2">
@@ -6083,13 +6139,13 @@
         <v>43291</v>
       </c>
       <c r="D290" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E290">
-        <v>8.14</v>
+        <v>3.07</v>
       </c>
       <c r="F290">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
@@ -6103,13 +6159,13 @@
         <v>43291</v>
       </c>
       <c r="D291" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="E291">
-        <v>19.600000000000001</v>
+        <v>8.14</v>
       </c>
       <c r="F291">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
@@ -6123,13 +6179,13 @@
         <v>43291</v>
       </c>
       <c r="D292" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E292">
-        <v>2.79</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F292">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.2">
@@ -6143,33 +6199,33 @@
         <v>43291</v>
       </c>
       <c r="D293" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E293">
-        <v>6.62</v>
+        <v>2.79</v>
       </c>
       <c r="F293">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B294">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C294" s="1">
-        <v>43290</v>
+        <v>43291</v>
       </c>
       <c r="D294" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E294">
-        <v>68.900000000000006</v>
+        <v>6.62</v>
       </c>
       <c r="F294">
-        <v>10.199999999999999</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.2">
@@ -6177,19 +6233,19 @@
         <v>26</v>
       </c>
       <c r="B295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C295" s="1">
-        <v>43283</v>
+        <v>43290</v>
       </c>
       <c r="D295" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E295">
-        <v>3.31</v>
+        <v>68.900000000000006</v>
       </c>
       <c r="F295">
-        <v>2.77</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.2">
@@ -6200,10 +6256,16 @@
         <v>2</v>
       </c>
       <c r="C296" s="1">
-        <v>43286</v>
+        <v>43283</v>
       </c>
       <c r="D296" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="E296">
+        <v>3.31</v>
+      </c>
+      <c r="F296">
+        <v>2.77</v>
       </c>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.2">
@@ -6214,16 +6276,10 @@
         <v>2</v>
       </c>
       <c r="C297" s="1">
-        <v>43283</v>
+        <v>43286</v>
       </c>
       <c r="D297" t="s">
-        <v>8</v>
-      </c>
-      <c r="E297">
-        <v>61.4</v>
-      </c>
-      <c r="F297">
-        <v>10.199999999999999</v>
+        <v>36</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.2">
@@ -6237,13 +6293,13 @@
         <v>43283</v>
       </c>
       <c r="D298" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="E298">
-        <v>3.07</v>
+        <v>61.4</v>
       </c>
       <c r="F298">
-        <v>2.77</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.2">
@@ -6257,13 +6313,13 @@
         <v>43283</v>
       </c>
       <c r="D299" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E299">
-        <v>34.4</v>
+        <v>3.07</v>
       </c>
       <c r="F299">
-        <v>10.199999999999999</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.2">
@@ -6274,19 +6330,16 @@
         <v>2</v>
       </c>
       <c r="C300" s="1">
-        <v>43290</v>
+        <v>43283</v>
       </c>
       <c r="D300" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E300">
-        <v>2.82</v>
+        <v>34.4</v>
       </c>
       <c r="F300">
-        <v>2.77</v>
-      </c>
-      <c r="H300" t="s">
-        <v>37</v>
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.2">
@@ -6297,16 +6350,19 @@
         <v>2</v>
       </c>
       <c r="C301" s="1">
-        <v>43286</v>
+        <v>43290</v>
       </c>
       <c r="D301" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E301">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="F301">
         <v>2.77</v>
+      </c>
+      <c r="H301" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
@@ -6317,16 +6373,16 @@
         <v>2</v>
       </c>
       <c r="C302" s="1">
-        <v>43283</v>
+        <v>43286</v>
       </c>
       <c r="D302" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E302">
-        <v>5.57</v>
+        <v>2.84</v>
       </c>
       <c r="F302">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
@@ -6334,16 +6390,16 @@
         <v>26</v>
       </c>
       <c r="B303">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C303" s="1">
-        <v>43292</v>
+        <v>43283</v>
       </c>
       <c r="D303" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="E303">
-        <v>4.58</v>
+        <v>5.57</v>
       </c>
       <c r="F303">
         <v>4.5999999999999996</v>
@@ -6360,10 +6416,10 @@
         <v>43292</v>
       </c>
       <c r="D304" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="E304">
-        <v>4.8099999999999996</v>
+        <v>4.58</v>
       </c>
       <c r="F304">
         <v>4.5999999999999996</v>
@@ -6380,13 +6436,13 @@
         <v>43292</v>
       </c>
       <c r="D305" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E305">
-        <v>34.6</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="F305">
-        <v>7</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.2">
@@ -6400,13 +6456,13 @@
         <v>43292</v>
       </c>
       <c r="D306" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E306">
-        <v>5.12</v>
+        <v>34.6</v>
       </c>
       <c r="F306">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
@@ -6420,10 +6476,10 @@
         <v>43292</v>
       </c>
       <c r="D307" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E307">
-        <v>4.6500000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="F307">
         <v>4.5999999999999996</v>
@@ -6440,10 +6496,10 @@
         <v>43292</v>
       </c>
       <c r="D308" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E308">
-        <v>11.59</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="F308">
         <v>4.5999999999999996</v>
@@ -6460,10 +6516,10 @@
         <v>43292</v>
       </c>
       <c r="D309" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E309">
-        <v>4.54</v>
+        <v>11.59</v>
       </c>
       <c r="F309">
         <v>4.5999999999999996</v>
@@ -6480,36 +6536,36 @@
         <v>43292</v>
       </c>
       <c r="D310" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E310">
-        <v>4.6100000000000003</v>
+        <v>4.54</v>
       </c>
       <c r="F310">
         <v>4.5999999999999996</v>
-      </c>
-      <c r="H310" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C311" s="1">
-        <v>43290</v>
+        <v>43292</v>
       </c>
       <c r="D311" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E311">
-        <v>12.6</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F311">
-        <v>7</v>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H311" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
@@ -6523,10 +6579,10 @@
         <v>43290</v>
       </c>
       <c r="D312" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E312">
-        <v>22.9</v>
+        <v>12.6</v>
       </c>
       <c r="F312">
         <v>7</v>
@@ -6537,16 +6593,16 @@
         <v>27</v>
       </c>
       <c r="B313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C313" s="1">
         <v>43290</v>
       </c>
       <c r="D313" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E313">
-        <v>10.4</v>
+        <v>22.9</v>
       </c>
       <c r="F313">
         <v>7</v>
@@ -6563,13 +6619,13 @@
         <v>43290</v>
       </c>
       <c r="D314" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E314">
-        <v>3.51</v>
+        <v>10.4</v>
       </c>
       <c r="F314">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
@@ -6583,10 +6639,10 @@
         <v>43290</v>
       </c>
       <c r="D315" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="E315">
-        <v>3.01</v>
+        <v>3.51</v>
       </c>
       <c r="F315">
         <v>2.77</v>
@@ -6603,42 +6659,41 @@
         <v>43290</v>
       </c>
       <c r="D316" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316">
+        <v>3.01</v>
+      </c>
+      <c r="F316">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>27</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D317" t="s">
         <v>13</v>
       </c>
-      <c r="E316">
+      <c r="E317">
         <v>2.82</v>
       </c>
-      <c r="F316">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A317" s="2">
-        <v>27</v>
-      </c>
-      <c r="B317" s="2">
-        <v>2</v>
-      </c>
-      <c r="C317" s="3">
-        <v>43290</v>
-      </c>
-      <c r="D317" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E317" s="2">
-        <v>3.04</v>
-      </c>
-      <c r="F317" s="2">
-        <v>2.77</v>
-      </c>
-      <c r="G317" s="2"/>
+      <c r="F317">
+        <v>2.77</v>
+      </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>27</v>
       </c>
       <c r="B318" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C318" s="3">
         <v>43290</v>
@@ -6647,32 +6702,33 @@
         <v>51</v>
       </c>
       <c r="E318" s="2">
+        <v>3.04</v>
+      </c>
+      <c r="F318" s="2">
+        <v>2.77</v>
+      </c>
+      <c r="G318" s="2"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>27</v>
+      </c>
+      <c r="B319" s="2">
+        <v>3</v>
+      </c>
+      <c r="C319" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E319" s="2">
         <v>37</v>
       </c>
-      <c r="F318" s="2">
+      <c r="F319" s="2">
         <v>7</v>
       </c>
-      <c r="G318" s="2"/>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A319">
-        <v>27</v>
-      </c>
-      <c r="B319">
-        <v>2</v>
-      </c>
-      <c r="C319" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D319" t="s">
-        <v>16</v>
-      </c>
-      <c r="E319">
-        <v>2.89</v>
-      </c>
-      <c r="F319">
-        <v>2.77</v>
-      </c>
+      <c r="G319" s="2"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
@@ -6685,10 +6741,10 @@
         <v>43290</v>
       </c>
       <c r="D320" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E320">
-        <v>2.81</v>
+        <v>2.89</v>
       </c>
       <c r="F320">
         <v>2.77</v>
@@ -6705,10 +6761,10 @@
         <v>43290</v>
       </c>
       <c r="D321" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="E321">
-        <v>5.39</v>
+        <v>2.81</v>
       </c>
       <c r="F321">
         <v>2.77</v>
@@ -6725,32 +6781,32 @@
         <v>43290</v>
       </c>
       <c r="D322" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322">
+        <v>5.39</v>
+      </c>
+      <c r="F322">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>27</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D323" t="s">
         <v>56</v>
       </c>
-      <c r="E322">
+      <c r="E323">
         <v>3.01</v>
       </c>
-      <c r="F322">
-        <v>2.77</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A323" s="2">
-        <v>27</v>
-      </c>
-      <c r="B323" s="2">
-        <v>2</v>
-      </c>
-      <c r="C323" s="3">
-        <v>43290</v>
-      </c>
-      <c r="D323" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E323" s="2">
-        <v>3.21</v>
-      </c>
-      <c r="F323" s="2">
+      <c r="F323">
         <v>2.77</v>
       </c>
     </row>
@@ -6768,7 +6824,7 @@
         <v>54</v>
       </c>
       <c r="E324" s="2">
-        <v>2.91</v>
+        <v>3.21</v>
       </c>
       <c r="F324" s="2">
         <v>2.77</v>
@@ -6779,19 +6835,19 @@
         <v>27</v>
       </c>
       <c r="B325" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" s="3">
         <v>43290</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="E325" s="2">
-        <v>22.9</v>
+        <v>2.91</v>
       </c>
       <c r="F325" s="2">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.2">
@@ -6805,16 +6861,16 @@
         <v>43290</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E326" s="2">
-        <v>13.7</v>
+        <v>22.9</v>
       </c>
       <c r="F326" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>27</v>
       </c>
@@ -6825,27 +6881,33 @@
         <v>43290</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="E327" s="2">
-        <v>12.1</v>
+        <v>13.7</v>
       </c>
       <c r="F327" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A328">
-        <v>28</v>
-      </c>
-      <c r="B328">
-        <v>1</v>
-      </c>
-      <c r="C328" s="1">
-        <v>43292</v>
-      </c>
-      <c r="D328" t="s">
-        <v>20</v>
+    <row r="328" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>27</v>
+      </c>
+      <c r="B328" s="2">
+        <v>3</v>
+      </c>
+      <c r="C328" s="3">
+        <v>43290</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E328" s="2">
+        <v>12.1</v>
+      </c>
+      <c r="F328" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.2">
@@ -6859,7 +6921,13 @@
         <v>43292</v>
       </c>
       <c r="D329" t="s">
-        <v>71</v>
+        <v>20</v>
+      </c>
+      <c r="E329" s="2">
+        <v>94.3</v>
+      </c>
+      <c r="F329" s="2">
+        <v>10.199999999999999</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.2">
@@ -6873,7 +6941,7 @@
         <v>43292</v>
       </c>
       <c r="D330" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.2">
@@ -6887,7 +6955,7 @@
         <v>43292</v>
       </c>
       <c r="D331" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.2">
@@ -6901,7 +6969,7 @@
         <v>43292</v>
       </c>
       <c r="D332" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.2">
@@ -6915,7 +6983,7 @@
         <v>43292</v>
       </c>
       <c r="D333" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.2">
@@ -6929,30 +6997,24 @@
         <v>43292</v>
       </c>
       <c r="D334" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>28</v>
+      </c>
+      <c r="B335">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1">
+        <v>43292</v>
+      </c>
+      <c r="D335" t="s">
         <v>23</v>
       </c>
-      <c r="H334" t="s">
+      <c r="H335" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A335" s="2">
-        <v>28</v>
-      </c>
-      <c r="B335" s="2">
-        <v>2</v>
-      </c>
-      <c r="C335" s="3">
-        <v>43286</v>
-      </c>
-      <c r="D335" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E335" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="F335" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.2">
@@ -6976,22 +7038,22 @@
       </c>
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A337">
+      <c r="A337" s="2">
         <v>28</v>
       </c>
-      <c r="B337">
-        <v>2</v>
-      </c>
-      <c r="C337" s="1">
+      <c r="B337" s="2">
+        <v>2</v>
+      </c>
+      <c r="C337" s="3">
         <v>43286</v>
       </c>
-      <c r="D337" t="s">
-        <v>8</v>
-      </c>
-      <c r="E337">
-        <v>30.6</v>
-      </c>
-      <c r="F337">
+      <c r="D337" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E337" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F337" s="2">
         <v>7</v>
       </c>
     </row>
@@ -7006,13 +7068,13 @@
         <v>43286</v>
       </c>
       <c r="D338" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="E338">
-        <v>3.24</v>
+        <v>30.6</v>
       </c>
       <c r="F338">
-        <v>2.77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.2">
@@ -7026,13 +7088,13 @@
         <v>43286</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="E339">
-        <v>7.26</v>
+        <v>3.24</v>
       </c>
       <c r="F339">
-        <v>4.5999999999999996</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.2">
@@ -7046,10 +7108,10 @@
         <v>43286</v>
       </c>
       <c r="D340" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E340">
-        <v>6.05</v>
+        <v>7.26</v>
       </c>
       <c r="F340">
         <v>4.5999999999999996</v>
@@ -7060,59 +7122,59 @@
         <v>28</v>
       </c>
       <c r="B341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C341" s="1">
+        <v>43286</v>
+      </c>
+      <c r="D341" t="s">
+        <v>42</v>
+      </c>
+      <c r="E341">
+        <v>6.05</v>
+      </c>
+      <c r="F341">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>28</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342" s="1">
         <v>43290</v>
       </c>
-      <c r="D341" t="s">
+      <c r="D342" t="s">
         <v>18</v>
       </c>
-      <c r="E341">
+      <c r="E342">
         <v>6.06</v>
       </c>
-      <c r="F341">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A342" s="2">
+      <c r="F342">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
         <v>28</v>
       </c>
-      <c r="B342" s="2">
-        <v>3</v>
-      </c>
-      <c r="C342" s="3">
+      <c r="B343" s="2">
+        <v>3</v>
+      </c>
+      <c r="C343" s="3">
         <v>43290</v>
       </c>
-      <c r="D342" s="2" t="s">
+      <c r="D343" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E342" s="2">
+      <c r="E343" s="2">
         <v>21</v>
       </c>
-      <c r="F342" s="2">
+      <c r="F343" s="2">
         <v>7</v>
-      </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A343">
-        <v>28</v>
-      </c>
-      <c r="B343">
-        <v>3</v>
-      </c>
-      <c r="C343" s="1">
-        <v>43290</v>
-      </c>
-      <c r="D343" t="s">
-        <v>58</v>
-      </c>
-      <c r="E343">
-        <v>3.31</v>
-      </c>
-      <c r="F343">
-        <v>2.77</v>
       </c>
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.2">
@@ -7126,13 +7188,13 @@
         <v>43290</v>
       </c>
       <c r="D344" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="E344">
-        <v>30.9</v>
+        <v>3.31</v>
       </c>
       <c r="F344">
-        <v>7</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.2">
@@ -7146,13 +7208,13 @@
         <v>43290</v>
       </c>
       <c r="D345" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E345">
-        <v>7.67</v>
+        <v>30.9</v>
       </c>
       <c r="F345">
-        <v>4.5999999999999996</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.2">
@@ -7166,13 +7228,13 @@
         <v>43290</v>
       </c>
       <c r="D346" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="E346">
-        <v>4.22</v>
+        <v>7.67</v>
       </c>
       <c r="F346">
-        <v>2.77</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.2">
@@ -7186,15 +7248,35 @@
         <v>43290</v>
       </c>
       <c r="D347" t="s">
+        <v>42</v>
+      </c>
+      <c r="E347">
+        <v>4.22</v>
+      </c>
+      <c r="F347">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>28</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348" s="1">
+        <v>43290</v>
+      </c>
+      <c r="D348" t="s">
         <v>23</v>
       </c>
-      <c r="E347">
+      <c r="E348">
         <v>2.83</v>
       </c>
-      <c r="F347">
-        <v>2.77</v>
-      </c>
-      <c r="H347" t="s">
+      <c r="F348">
+        <v>2.77</v>
+      </c>
+      <c r="H348" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7204,9 +7286,9 @@
     <sortCondition ref="B2:B347"/>
     <sortCondition ref="D2:D347"/>
   </sortState>
-  <conditionalFormatting sqref="A323:F327">
+  <conditionalFormatting sqref="A324:F328">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>$G$323</formula>
+      <formula>$G$324</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
